--- a/data/test_2.xlsx
+++ b/data/test_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OAEM Lab\CodePy\Power Flow\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5DB47D-2E16-483F-B94C-F73F67AC4BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3CFDD4-45BA-4D85-8110-E6F337B299EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{A89002B9-6291-4903-AA87-F58FD56E8D77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A89002B9-6291-4903-AA87-F58FD56E8D77}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Việt Vũ</author>
-    <author>tc={C25641FD-FBAF-40AD-89EA-A7C5BFAB6FC6}</author>
-    <author>tc={DE36435B-E887-415E-99CF-53FB9AF077EE}</author>
-    <author>PhuongPQ</author>
   </authors>
   <commentList>
     <comment ref="A7" authorId="0" shapeId="0" xr:uid="{CBBE56B2-EEF8-4887-B3FE-D868B19A3305}">
@@ -148,74 +145,6 @@
           <t xml:space="preserve">
 Epsilon
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="1" shapeId="0" xr:uid="{C25641FD-FBAF-40AD-89EA-A7C5BFAB6FC6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Value,penality</t>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="2" shapeId="0" xr:uid="{DE36435B-E887-415E-99CF-53FB9AF077EE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Value,penality</t>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="3" shapeId="0" xr:uid="{30966E90-91C6-4156-81D8-94C9D187BF0C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giới hạn, hàm phạt về điện áp cao</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="3" shapeId="0" xr:uid="{5365EA4D-0267-4644-BE7E-F4CA830E8371}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giới hạn, hàm phạt về điện áp thấp</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="3" shapeId="0" xr:uid="{70C4075A-A6CC-4B28-8281-0074A1F4D8C2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giới hạn, hàm phạt cosPhi nguồn (phát CSPK)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="3" shapeId="0" xr:uid="{A6B3DF9E-17C7-413A-AFC9-53A7438DC142}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Giới hạn, hàm phạt cosPhi nguồn (hút CSPK)</t>
         </r>
       </text>
     </comment>
@@ -292,45 +221,7 @@
     Công suất phản kháng của phụ tải</t>
       </text>
     </comment>
-    <comment ref="H2" authorId="7" shapeId="0" xr:uid="{8F33EE6C-5D4D-4F8B-99B7-40C9701F0688}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">tọa độ x plot
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="7" shapeId="0" xr:uid="{D8032845-DB55-4C1F-B424-7FCE2B064532}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>tọa độ y plot</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="7" shapeId="0" xr:uid="{66372630-ADA5-4F98-8A03-05E0A85BFAC7}">
+    <comment ref="H2" authorId="7" shapeId="0" xr:uid="{66372630-ADA5-4F98-8A03-05E0A85BFAC7}">
       <text>
         <r>
           <rPr>
@@ -349,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="7" shapeId="0" xr:uid="{BCECCF96-FBEA-4975-88FC-97176F37AA1E}">
+    <comment ref="I2" authorId="7" shapeId="0" xr:uid="{BCECCF96-FBEA-4975-88FC-97176F37AA1E}">
       <text>
         <r>
           <rPr>
@@ -1447,7 +1338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>##SETTING cài đặt tính toán ##comment</t>
   </si>
@@ -1464,9 +1355,6 @@
     <t>GE_Sbase</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>##POWERFLOW</t>
   </si>
   <si>
@@ -1515,12 +1403,6 @@
     <t>QLOAD</t>
   </si>
   <si>
-    <t>xCoord</t>
-  </si>
-  <si>
-    <t>yCoord</t>
-  </si>
-  <si>
     <t>PLOT</t>
   </si>
   <si>
@@ -1692,16 +1574,19 @@
     <t>kV3</t>
   </si>
   <si>
-    <t>kva</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>kvar</t>
   </si>
   <si>
-    <t>kva, kw</t>
+    <t>mva</t>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>mva, kw</t>
   </si>
 </sst>
 </file>
@@ -1873,55 +1758,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>21425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>336031</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>115002</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A044A56-0AF1-42E0-B667-D083940E871F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9980765" y="922020"/>
-          <a:ext cx="3972206" cy="3582102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,17 +2084,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A10" dT="2023-01-28T06:56:05.47" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{C25641FD-FBAF-40AD-89EA-A7C5BFAB6FC6}">
-    <text>Value,penality</text>
-  </threadedComment>
-  <threadedComment ref="A11" dT="2023-01-28T06:56:05.47" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{DE36435B-E887-415E-99CF-53FB9AF077EE}">
-    <text>Value,penality</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2022-04-28T14:45:40.42" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{F8B2B212-0A82-4686-8F7A-A3240A9FC3B9}">
     <text>Số nút (duy nhất)</text>
   </threadedComment>
@@ -2283,7 +2108,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B2" dT="2022-04-28T14:45:40.42" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{E50F4B0F-BCDC-45F2-A332-A8E21D0530A4}">
     <text>Số nút (duy nhất)</text>
@@ -2312,7 +2137,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2022-04-28T16:49:40.59" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{84DE3A43-D69A-434F-9A11-67B9405151E8}">
     <text>Số thứ tự Line, duy nhất &gt;1000</text>
@@ -2335,7 +2160,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2022-04-28T16:49:40.59" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{7EEC7D77-70A5-45E9-9F31-D2E809D263FF}">
     <text>Số thứ tự Line, duy nhất &gt;1000</text>
@@ -2349,7 +2174,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2022-04-28T16:49:40.59" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{52F4A57F-4D24-484B-9ADE-ADE60649448D}">
     <text>Số thứ tự Line, duy nhất &gt;1000</text>
@@ -2363,7 +2188,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B2" dT="2022-04-28T14:45:40.42" personId="{1E40B9F4-DA31-4E6E-923A-0257264DFFAC}" id="{41E142F8-2028-4D52-B5C3-60790A98B7CE}">
     <text>Số nút (duy nhất)</text>
@@ -2388,7 +2213,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2423,20 +2248,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
@@ -2447,13 +2272,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>100</v>
@@ -2461,7 +2286,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>100</v>
@@ -2469,7 +2294,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>1.1000000000000001</v>
@@ -2477,7 +2302,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>0.9</v>
@@ -2485,7 +2310,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>0.85</v>
@@ -2493,7 +2318,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4">
         <v>0.95</v>
@@ -2508,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03A9EF-FE95-4D81-B210-C4D56E762EBC}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,9 +2344,9 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2530,47 +2355,41 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5">
         <v>12</v>
@@ -2583,22 +2402,16 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5">
         <v>12</v>
@@ -2615,19 +2428,13 @@
       <c r="G4" s="5">
         <v>50</v>
       </c>
-      <c r="H4" s="5">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5">
         <v>12</v>
@@ -2644,14 +2451,8 @@
       <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2659,10 +2460,8 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2670,10 +2469,8 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2681,10 +2478,8 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2692,10 +2487,8 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2703,10 +2496,8 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2714,10 +2505,8 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2725,10 +2514,8 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2736,10 +2523,8 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2747,8 +2532,6 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D14">
@@ -2779,7 +2562,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2789,7 +2572,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2797,49 +2580,49 @@
     </row>
     <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2854,7 +2637,6 @@
         <v>BUS1</v>
       </c>
       <c r="D3" s="5">
-        <f>12</f>
         <v>12</v>
       </c>
       <c r="E3" s="5">
@@ -2877,12 +2659,12 @@
         <v>-99999</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2897,11 +2679,10 @@
         <v>BUS3</v>
       </c>
       <c r="D4" s="5">
-        <f>12</f>
         <v>12</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
@@ -2920,7 +2701,7 @@
         <v>-99999</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2956,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBB544-0FF8-421F-A037-0D03BC243DC3}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2967,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="10"/>
@@ -2986,49 +2767,49 @@
     </row>
     <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3041,9 +2822,9 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="e">
-        <f>CONCATENATE(VLOOKUP(B3,#REF!,2,FALSE),"-",VLOOKUP(C3,#REF!,2,FALSE))</f>
-        <v>#REF!</v>
+      <c r="D3" s="5" t="str">
+        <f>_xlfn.CONCAT("BUS",B3,"-BUS",C3)</f>
+        <v>BUS2-BUS1</v>
       </c>
       <c r="E3" s="5">
         <v>12</v>
@@ -3061,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5">
         <v>1</v>
       </c>
       <c r="L3" s="5">
-        <v>4.3200000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M3" s="5">
-        <v>0.432</v>
+        <v>0.4</v>
       </c>
       <c r="N3" s="5">
         <v>0</v>
@@ -3089,9 +2870,9 @@
       <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="e">
-        <f>CONCATENATE(VLOOKUP(B4,#REF!,2,FALSE),"-",VLOOKUP(C4,#REF!,2,FALSE))</f>
-        <v>#REF!</v>
+      <c r="D4" s="5" t="str">
+        <f>_xlfn.CONCAT("BUS",B4,"-BUS",C4)</f>
+        <v>BUS3-BUS2</v>
       </c>
       <c r="E4" s="5">
         <v>12</v>
@@ -3109,16 +2890,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="5">
-        <v>8.6400000000000005E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M4" s="5">
-        <v>0.28799999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -3398,8 +3179,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3407,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA75AC57-F569-4E05-8AA3-F61270289ED3}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="10"/>
@@ -3435,49 +3215,49 @@
     </row>
     <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="O2" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3504,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5">
         <v>100</v>
@@ -3525,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3561,7 +3341,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="10"/>
@@ -3587,70 +3367,70 @@
     </row>
     <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="U2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -3683,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K3" s="5">
         <v>0</v>
@@ -3744,14 +3524,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3766,37 +3546,37 @@
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3820,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -3828,7 +3608,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3852,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -3882,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -3912,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>

--- a/data/test_2.xlsx
+++ b/data/test_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OAEM Lab\CodePy\Power Flow\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3CFDD4-45BA-4D85-8110-E6F337B299EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57BC005-834C-4071-9DC1-7F45E61CA79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A89002B9-6291-4903-AA87-F58FD56E8D77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A89002B9-6291-4903-AA87-F58FD56E8D77}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>##SETTING cài đặt tính toán ##comment</t>
   </si>
@@ -1520,9 +1520,6 @@
     <t>i0 [%]</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>## MBA3DATA: dữ liệu máy biến áp 3 cuộn dây</t>
   </si>
   <si>
@@ -1562,9 +1559,6 @@
     <t>i0     [%]</t>
   </si>
   <si>
-    <t>AT1</t>
-  </si>
-  <si>
     <t>kV1</t>
   </si>
   <si>
@@ -1577,16 +1571,10 @@
     <t>PF</t>
   </si>
   <si>
-    <t>kvar</t>
-  </si>
-  <si>
     <t>mva</t>
   </si>
   <si>
     <t>PSM</t>
-  </si>
-  <si>
-    <t>mva, kw</t>
   </si>
 </sst>
 </file>
@@ -2212,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF55B9-F646-4B98-A58A-5B501BC09BE4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2258,10 +2246,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C7" s="6">
         <v>200</v>
@@ -2336,7 +2324,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2380,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -2403,7 +2391,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2414,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -2437,7 +2425,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -2562,7 +2550,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2637,7 +2625,7 @@
         <v>BUS1</v>
       </c>
       <c r="D3" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -2664,7 +2652,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2679,7 +2667,7 @@
         <v>BUS3</v>
       </c>
       <c r="D4" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -2737,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBB544-0FF8-421F-A037-0D03BC243DC3}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2827,7 +2815,7 @@
         <v>BUS2-BUS1</v>
       </c>
       <c r="E3" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -2842,16 +2830,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5">
         <v>1</v>
       </c>
       <c r="L3" s="5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N3" s="5">
         <v>0</v>
@@ -2875,7 +2863,7 @@
         <v>BUS3-BUS2</v>
       </c>
       <c r="E4" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2890,16 +2878,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -3188,7 +3176,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="A3" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,10 +3215,10 @@
         <v>45</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>46</v>
@@ -3261,52 +3249,20 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="e">
-        <f>CONCATENATE(VLOOKUP(B3,#REF!,2,FALSE),"-",VLOOKUP(C3,#REF!,2,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" s="5">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>100</v>
-      </c>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I3">
@@ -3329,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCAB96F-222B-4FF5-B91A-8EF50D8109E6}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3341,7 +3297,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="10"/>
@@ -3376,131 +3332,86 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>58</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="e">
-        <f>CONCATENATE(VLOOKUP(B3,#REF!,2,FALSE),"-",VLOOKUP(C3,#REF!,2,FALSE),"-",VLOOKUP(D3,#REF!,2,FALSE))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" s="5">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>25000</v>
-      </c>
-      <c r="M3" s="5">
-        <v>25000</v>
-      </c>
-      <c r="N3" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O3" s="5">
-        <v>12</v>
-      </c>
-      <c r="P3" s="5">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>18</v>
-      </c>
-      <c r="R3" s="5">
-        <v>15</v>
-      </c>
-      <c r="S3" s="5">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5">
-        <v>12</v>
-      </c>
-      <c r="U3" s="5">
-        <v>18</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0.03</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
@@ -3524,7 +3435,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3580,123 +3491,53 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="e">
-        <f>VLOOKUP(B3,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="5">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>500</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="e">
-        <f>VLOOKUP(B4,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="5">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
-        <v>200</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="e">
-        <f>VLOOKUP(B5,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="5">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
-        <v>200</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="e">
-        <f>VLOOKUP(B6,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>50</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
